--- a/requirements/traceability_matrix.xlsx
+++ b/requirements/traceability_matrix.xlsx
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-22 09:34:04</t>
+          <t>2025-07-22 09:59:12</t>
         </is>
       </c>
     </row>

--- a/requirements/traceability_matrix.xlsx
+++ b/requirements/traceability_matrix.xlsx
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-22 09:59:12</t>
+          <t>2025-07-22 10:02:11</t>
         </is>
       </c>
     </row>

--- a/requirements/traceability_matrix.xlsx
+++ b/requirements/traceability_matrix.xlsx
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:02:11</t>
+          <t>2025-07-22 10:10:01</t>
         </is>
       </c>
     </row>

--- a/requirements/traceability_matrix.xlsx
+++ b/requirements/traceability_matrix.xlsx
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:10:01</t>
+          <t>2025-07-22 10:17:38</t>
         </is>
       </c>
     </row>

--- a/requirements/traceability_matrix.xlsx
+++ b/requirements/traceability_matrix.xlsx
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:17:38</t>
+          <t>2025-07-22 10:19:20</t>
         </is>
       </c>
     </row>

--- a/requirements/traceability_matrix.xlsx
+++ b/requirements/traceability_matrix.xlsx
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:19:20</t>
+          <t>2025-07-22 12:45:22</t>
         </is>
       </c>
     </row>

--- a/requirements/traceability_matrix.xlsx
+++ b/requirements/traceability_matrix.xlsx
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-22 12:45:22</t>
+          <t>2025-07-22 12:47:15</t>
         </is>
       </c>
     </row>
